--- a/src/exportData.xlsx
+++ b/src/exportData.xlsx
@@ -212,9 +212,6 @@
       <c r="H3" t="n" s="2">
         <v>45153.229166666664</v>
       </c>
-      <c r="I3" t="n" s="2">
-        <v>45160.229166666664</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
